--- a/docs/mcode/onco-core-TNMPathologicStageGroup.xlsx
+++ b/docs/mcode/onco-core-TNMPathologicStageGroup.xlsx
@@ -150,7 +150,7 @@
     <t>onco-core-TNMPathologicStageGroup</t>
   </si>
   <si>
-    <t>A panel of staging information that is based on examination of tissue samples removed during surgery, in addition to physical examination and imaging and potentially, other prognostic factors.</t>
+    <t>The extent of the cancer in the body, according to the TNM classification system, based on examination of tissue samples removed during surgery, in addition to physical examination and imaging and potentially, other prognostic factors.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as lab reports, etc.</t>
@@ -329,7 +329,7 @@
 </t>
   </si>
   <si>
-    <t>Primary cancer condition, in which abnormal cells divide without control and can invade nearby tissues. A primary cancer is defined as the original site (organ or tissue) where a cancer began.</t>
+    <t>Records the history of the primary cancer condition, the original or first tumor in the body, abnormal cells that divide without control and can invade nearby tissues.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -783,6 +783,9 @@
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/us/mcode/onco/core/vs/TNMStageGroupVS</t>
   </si>
   <si>
@@ -875,9 +878,6 @@
     <t>Knowing where the observation is made is important for tracking if multiple sites are possible.</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
@@ -902,7 +902,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/onco/core/vs/TNMTumorStagingSystemVS</t>
+    <t>http://hl7.org/fhir/us/mcode/onco/core/vs/CancerStagingSystemVS</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1115,13 +1115,13 @@
     <t>outBoundRelationship</t>
   </si>
   <si>
-    <t>onco-core-TNMPathologicPrimaryTumorClassification</t>
-  </si>
-  <si>
-    <t>TNMPathologicPrimaryTumorClassification</t>
-  </si>
-  <si>
-    <t>Classification of the primary tumor, based on its size and extent, assessed through pathologic analysis of a tumor specimen.</t>
+    <t>onco-core-TNMPathologicPrimaryTumorCategory</t>
+  </si>
+  <si>
+    <t>TNMPathologicPrimaryTumorCategory</t>
+  </si>
+  <si>
+    <t>Category describing the primary tumor, based on its size and extent, assessed through pathologic analysis of a tumor specimen.</t>
   </si>
   <si>
     <t>Observation.related.id</t>
@@ -1163,7 +1163,7 @@
     <t>Observation.related.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-TNMPathologicPrimaryTumorClassification]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-TNMPathologicPrimaryTumorCategory]]}
 </t>
   </si>
   <si>
@@ -1176,29 +1176,29 @@
     <t>.targetObservation</t>
   </si>
   <si>
-    <t>onco-core-TNMPathologicRegionalNodesClassification</t>
-  </si>
-  <si>
-    <t>TNMPathologicRegionalNodesClassification</t>
-  </si>
-  <si>
-    <t>Classification of the presence or absence of metastases in regional lymph nodes, assessed through pathologic analysis of a specimen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-TNMPathologicRegionalNodesClassification]]}
+    <t>onco-core-TNMPathologicRegionalNodesCategory</t>
+  </si>
+  <si>
+    <t>TNMPathologicRegionalNodesCategory</t>
+  </si>
+  <si>
+    <t>Category describing the presence or absence of metastases in regional lymph nodes, assessed through pathologic analysis of a specimen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-TNMPathologicRegionalNodesCategory]]}
 </t>
   </si>
   <si>
-    <t>onco-core-TNMPathologicDistantMetastasesClassification</t>
-  </si>
-  <si>
-    <t>TNMPathologicDistantMetastasesClassification</t>
-  </si>
-  <si>
-    <t>Classification of the presence or absense of metastases in remote anatomical locations, assessed through pathologic analysis of a specimen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-TNMPathologicDistantMetastasesClassification]]}
+    <t>onco-core-TNMPathologicDistantMetastasesCategory</t>
+  </si>
+  <si>
+    <t>TNMPathologicDistantMetastasesCategory</t>
+  </si>
+  <si>
+    <t>Category describing the presence or absence of metastases in remote anatomical locations, assessed through pathologic analysis of a specimen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-TNMPathologicDistantMetastasesCategory]]}
 </t>
   </si>
   <si>
@@ -1459,7 +1459,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.8046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.14453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1482,7 +1482,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="47.11328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.19921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.82421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -4904,11 +4904,11 @@
         <v>42</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>124</v>
+        <v>246</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>42</v>
@@ -4926,7 +4926,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>51</v>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4978,16 +4978,16 @@
         <v>120</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
@@ -5034,7 +5034,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -5043,7 +5043,7 @@
         <v>51</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>42</v>
@@ -5052,7 +5052,7 @@
         <v>88</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -5060,11 +5060,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5086,14 +5086,14 @@
         <v>120</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5121,10 +5121,10 @@
         <v>124</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
@@ -5153,10 +5153,10 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -5164,7 +5164,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5190,14 +5190,14 @@
         <v>167</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5257,10 +5257,10 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>42</v>
@@ -5268,7 +5268,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5294,16 +5294,16 @@
         <v>120</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5328,7 +5328,7 @@
         <v>42</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
@@ -5350,7 +5350,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -6418,7 +6418,7 @@
         <v>334</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -9277,13 +9277,13 @@
         <v>402</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>403</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>42</v>
@@ -9312,7 +9312,7 @@
       </c>
       <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>42</v>
@@ -9335,7 +9335,7 @@
       </c>
       <c r="AG75" s="2"/>
       <c r="AH75" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>42</v>
@@ -9344,7 +9344,7 @@
         <v>88</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>42</v>
@@ -10070,7 +10070,7 @@
         <v>334</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>42</v>

--- a/docs/mcode/onco-core-TNMPathologicStageGroup.xlsx
+++ b/docs/mcode/onco-core-TNMPathologicStageGroup.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$105</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="474">
   <si>
     <t>Path</t>
   </si>
@@ -178,7 +178,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -194,7 +194,7 @@
     <t>Observation.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -204,13 +204,146 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
+    <t>Observation.meta.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-SourceSystem-extension}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Observation.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Observation.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Observation.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Observation.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Observation.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
     <t>Observation.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -223,7 +356,7 @@
     <t>Observation.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -252,7 +385,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -279,7 +412,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -298,38 +431,47 @@
     <t>Observation.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>observationbasedon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-ObservationBasedOn-extension}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>The plan, proposal or order that is fulfilled in whole or in part by this event. For example, a MedicationRequest may require a patient to have laboratory test performed before it is dispensed.</t>
+  </si>
+  <si>
+    <t>observationpartof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-ObservationPartOf-extension}
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>primarycancercondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-PrimaryCancerCondition-extension]]} {[]}
+    <t>A larger event of which this particular Observation is a component or step. For example, an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Annotation-extension}
 </t>
   </si>
   <si>
-    <t>Records the history of the primary cancer condition, the original or first tumor in the body, abnormal cells that divide without control and can invade nearby tissues.</t>
+    <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
+  </si>
+  <si>
+    <t>observationderivedfrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-ObservationDerivedFrom-extension}
+</t>
+  </si>
+  <si>
+    <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -341,10 +483,72 @@
     <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
+    <t xml:space="preserve">exists:url}
+</t>
+  </si>
+  <si>
+    <t>focalsubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-FocalSubject-extension}
+</t>
+  </si>
+  <si>
+    <t>The person or entity that the information in this resource relates to, if different than the person of record. The subject of information can be a reference or a code, the latter when the subject is described generically, for example, in terms of a relationship to the subject of record (e.g., wife).</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension.id</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension.extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition should be version specific.  This will ideally be the URI for the Resource Profile defining the extension, with the code for the extension after a #.</t>
+  </si>
+  <si>
+    <t>http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-FocalSubject-extension</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension.valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/onco-core-PrimaryCancerCondition)
+</t>
+  </si>
+  <si>
+    <t>PrimaryCancerCondition: Records the history of the primary cancer condition, the original or first tumor in the body (reference https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor)</t>
+  </si>
+  <si>
+    <t>Records the history of the primary cancer condition, the original or first tumor in the body (reference https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor). Cancers that are not clearly secondary (i.e., of uncertain origin or behavior) should be documented as primary.
+Cancer staging information summarized in this profile should reflect the most recent staging assessment on the patient, and should be updated if and when there is a new staging assessment. Past staging assessments will be preserved in instances of the TNMClinicalStageGroup and/or TNMPathologicalStageGroup, which refer back to PrimaryCancerCondition.
+Conformance note: For the code attribute, to be compliant with [US Core Profiles](http://hl7.org/fhir/us/core/STU3/index.html), SNOMED CT must be used unless there is no suitable code, in which case ICD-10-CM can be used.</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
     <t>Observation.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -393,7 +597,7 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -406,9 +610,6 @@
     <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Observation.code.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Codes for high level observation categories .</t>
   </si>
   <si>
@@ -433,9 +634,6 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
@@ -454,26 +652,10 @@
     <t>Observation.code.id</t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.code.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -525,7 +707,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://loinc.org"/&gt;</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>C*E.3</t>
@@ -537,7 +719,7 @@
     <t>Observation.code.coding.version</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -568,7 +750,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="21902-2"/&gt;</t>
+    <t>21902-2</t>
   </si>
   <si>
     <t>C*E.1</t>
@@ -598,7 +780,7 @@
     <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -644,14 +826,14 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Patient)
 </t>
   </si>
   <si>
-    <t>Who and/or what this is about</t>
-  </si>
-  <si>
-    <t>The patient, or group of patients, location, or device whose characteristics (direct or indirect) are described by the observation and into whose record the observation is placed.  Comments: Indirect characteristics may be those of a specimen, fetus, donor,  other observer (for example a relative or EMT), or any observation made about the subject.</t>
+    <t>The subject of an observation</t>
+  </si>
+  <si>
+    <t>The subject of an observation.</t>
   </si>
   <si>
     <t>One would expect this element to be a cardinality  of 1..1.  The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.@@ -674,7 +856,7 @@
     <t>Observation.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -699,8 +881,8 @@
     <t>Observation.effective[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -727,35 +909,31 @@
     <t>Observation.issued</t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t>Date/Time this was made available</t>
+  </si>
+  <si>
+    <t>The date and time this observation was made available to providers, typically after the results have been reviewed and verified.</t>
+  </si>
+  <si>
+    <t>Updated when the result is updated.</t>
+  </si>
+  <si>
+    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>Observation.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner)
 </t>
   </si>
   <si>
-    <t>Date/Time this was made available</t>
-  </si>
-  <si>
-    <t>The date and time this observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
-    <t>Updated when the result is updated.</t>
-  </si>
-  <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>Observation.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
-</t>
-  </si>
-  <si>
     <t>Who is responsible for the observation</t>
   </si>
   <si>
@@ -783,15 +961,30 @@
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
+    <t>Normally, an observation will have either a value or a set of related observations. A few observations (e.g. Apgar score) may have both a value and related observations (for an Apgar score, the observations from which the measure is derived). If a value is present, the datatype for this element should be determined by Observation.code. This element has a variable name depending on the type as follows: valueQuantity, valueCodeableConcept, valueString, valueRange, valueRatio, valueSampledData, valueAttachment, valueTime, valueDateTime, or valuePeriod. (The name format is "'value' + the type name" with a capital on the first letter of the type).+++If the data element is usually coded or if the type associated with the Observation.value defines a coded value, use CodeableConcept instead of string datatype even if the value is uncoded text.  A value set is bound to the ValueCodeableConcept element.  For boolean values use valueCodeableConcept and select codes from [HL7 Version 2 Table 0136](v2/0136/index.html). These "yes/no" concepts can be mapped to the display name "true/false" or other mutually exclusive terms that may be needed.   For further discussion and examples see the  [notes section](observation.html#4.20.4) below.</t>
+  </si>
+  <si>
+    <t>An observation exists to have a value, though it may not if it is in error, or it represents a group of observations.</t>
+  </si>
+  <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/onco/core/vs/TNMStageGroupVS</t>
+    <t>http://mcodeinitiative.org/us/mcode/ValueSet/onco-core-TNMStageGroupVS</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
   </si>
   <si>
+    <t>OBX.2, OBX.5, OBX.6</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
@@ -807,7 +1000,10 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>Codes specifying why the result (Observation.value[x]) is missing.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-valueabsentreason</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -878,7 +1074,10 @@
     <t>Knowing where the observation is made is important for tracking if multiple sites are possible.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyLocationVS</t>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>OBX-20</t>
@@ -890,10 +1089,10 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t>How it was done</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to perform the observation.</t>
+    <t>Method or staging system used to stage the cancer</t>
+  </si>
+  <si>
+    <t>Method or staging system used to stage the cancer.</t>
   </si>
   <si>
     <t>Only used if not implicit in code for Observation.code.</t>
@@ -902,7 +1101,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/onco/core/vs/CancerStagingSystemVS</t>
+    <t>http://mcodeinitiative.org/us/mcode/ValueSet/onco-core-CancerStagingSystemVS</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -914,7 +1113,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Specimen]]}
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
@@ -936,7 +1135,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device]]}
+    <t xml:space="preserve">Reference(http://fhir.org/guides/argonaut/StructureDefinition/argo-device)
 </t>
   </si>
   <si>
@@ -958,7 +1157,7 @@
     <t>Observation.referenceRange</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1003,7 +1202,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/SimpleQuantity]]} {[]}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1062,7 +1261,7 @@
     <t>Observation.referenceRange.age</t>
   </si>
   <si>
-    <t xml:space="preserve">Range {[]} {[]}
+    <t xml:space="preserve">Range
 </t>
   </si>
   <si>
@@ -1115,90 +1314,94 @@
     <t>outBoundRelationship</t>
   </si>
   <si>
+    <t>Observation.related.id</t>
+  </si>
+  <si>
+    <t>Observation.related.extension</t>
+  </si>
+  <si>
+    <t>Observation.related.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.related.type</t>
+  </si>
+  <si>
+    <t>has-member | derived-from | sequel-to | replaces | qualified-by | interfered-by</t>
+  </si>
+  <si>
+    <t>A code specifying the kind of relationship that exists with the target resource.</t>
+  </si>
+  <si>
+    <t>"derived-from" is only logical choice when referencing QuestionnaireAnswer resource.</t>
+  </si>
+  <si>
+    <t>A relationship type SHOULD be provided.</t>
+  </si>
+  <si>
+    <t>has-member</t>
+  </si>
+  <si>
+    <t>Codes specifying how two observations are related.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-relationshiptypes</t>
+  </si>
+  <si>
+    <t>.typeCode</t>
+  </si>
+  <si>
+    <t>Observation.related.target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Observation)
+</t>
+  </si>
+  <si>
+    <t>Resource that is related to this one</t>
+  </si>
+  <si>
+    <t>A reference to the observation or [[[QuestionnaireResponse]]] resource that is related to this observation.</t>
+  </si>
+  <si>
+    <t>.targetObservation</t>
+  </si>
+  <si>
     <t>onco-core-TNMPathologicPrimaryTumorCategory</t>
   </si>
   <si>
-    <t>TNMPathologicPrimaryTumorCategory</t>
+    <t>TNMPathologicPrimaryTumorCategory: Category describing the primary tumor, based on its size and extent, assessed through pathologic analysis of a tumor specimen</t>
   </si>
   <si>
     <t>Category describing the primary tumor, based on its size and extent, assessed through pathologic analysis of a tumor specimen.</t>
   </si>
   <si>
-    <t>Observation.related.id</t>
-  </si>
-  <si>
-    <t>Observation.related.extension</t>
-  </si>
-  <si>
-    <t>Observation.related.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.related.type</t>
-  </si>
-  <si>
-    <t>has-member | derived-from | sequel-to | replaces | qualified-by | interfered-by</t>
-  </si>
-  <si>
-    <t>A code specifying the kind of relationship that exists with the target resource.</t>
-  </si>
-  <si>
-    <t>"derived-from" is only logical choice when referencing QuestionnaireAnswer resource.</t>
-  </si>
-  <si>
-    <t>A relationship type SHOULD be provided.</t>
-  </si>
-  <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="has-member"/&gt;</t>
-  </si>
-  <si>
-    <t>Codes specifying how two observations are related.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-relationshiptypes</t>
-  </si>
-  <si>
-    <t>.typeCode</t>
-  </si>
-  <si>
-    <t>Observation.related.target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-TNMPathologicPrimaryTumorCategory]]}
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/onco-core-TNMPathologicPrimaryTumorCategory)
 </t>
   </si>
   <si>
-    <t>Resource that is related to this one</t>
-  </si>
-  <si>
-    <t>A reference to the observation or [[[QuestionnaireResponse]]] resource that is related to this observation.</t>
-  </si>
-  <si>
-    <t>.targetObservation</t>
-  </si>
-  <si>
     <t>onco-core-TNMPathologicRegionalNodesCategory</t>
   </si>
   <si>
-    <t>TNMPathologicRegionalNodesCategory</t>
+    <t>TNMPathologicRegionalNodesCategory: Category describing the presence or absence of metastases in regional lymph nodes, assessed through pathologic analysis of a specimen</t>
   </si>
   <si>
     <t>Category describing the presence or absence of metastases in regional lymph nodes, assessed through pathologic analysis of a specimen.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-TNMPathologicRegionalNodesCategory]]}
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/onco-core-TNMPathologicRegionalNodesCategory)
 </t>
   </si>
   <si>
     <t>onco-core-TNMPathologicDistantMetastasesCategory</t>
   </si>
   <si>
-    <t>TNMPathologicDistantMetastasesCategory</t>
+    <t>TNMPathologicDistantMetastasesCategory: Category describing the presence or absence of metastases in remote anatomical locations, assessed through pathologic analysis of a specimen</t>
   </si>
   <si>
     <t>Category describing the presence or absence of metastases in remote anatomical locations, assessed through pathologic analysis of a specimen.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-TNMPathologicDistantMetastasesCategory]]}
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/onco-core-TNMPathologicDistantMetastasesCategory)
 </t>
   </si>
   <si>
@@ -1245,23 +1448,14 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
-    <t>Quantity {[]} {[]}
-CodeableConcept {[]} {[]}string {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}time {[]} {[]}dateTime {[]} {[]}Period {[]} {[]}</t>
+    <t>Quantity
+CodeableConceptstringRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
   </si>
   <si>
     <t>Normally, an observation will have either a value or a set of related observations. A few observations (e.g. Apgar score) may have both a value and related observations (for an Apgar score, the observations from which the measure is derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.   For boolean values use valueCodeableConcept and select codes from &lt;http://hl7.org/fhir/ValueSet/v2-0136&gt; (These "yes/no" concepts can be mapped to the display name "true/false" or other mutually exclusive terms that may be needed").  The element, Observation.value[x], has a variable name depending on the type as follows: valueQuantity, valueCodeableConcept, valueRatio, valueChoice, valuePeriod, valueSampleData, or valueString (The name format is "'value' + the type name" with a capital on the first letter of the type).</t>
-  </si>
-  <si>
-    <t>An observation exists to have a value, though it may not if it is in error, or it represents a group of observations.</t>
-  </si>
-  <si>
-    <t>OBX.2, OBX.5, OBX.6</t>
-  </si>
-  <si>
-    <t>value</t>
   </si>
   <si>
     <t>Observation.component.dataAbsentReason</t>
@@ -1353,67 +1547,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1449,7 +1643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM84"/>
+  <dimension ref="A1:AL105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1468,7 +1662,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="190.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1481,8 +1675,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="47.11328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.19921875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.05859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.82421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -1943,23 +2137,21 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>65</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -2022,7 +2214,7 @@
         <v>42</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>42</v>
@@ -2030,18 +2222,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -2088,28 +2280,26 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AB6" s="2"/>
+      <c r="AC6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" t="s" s="2">
@@ -2126,7 +2316,7 @@
         <v>42</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>42</v>
@@ -2134,11 +2324,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2157,17 +2349,13 @@
         <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K7" s="2"/>
       <c r="L7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>42</v>
@@ -2215,13 +2403,17 @@
       <c r="AD7" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
@@ -2230,7 +2422,7 @@
         <v>42</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>42</v>
@@ -2238,18 +2430,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -2258,19 +2450,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2334,7 +2526,7 @@
         <v>42</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>42</v>
@@ -2342,18 +2534,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>42</v>
@@ -2362,19 +2554,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2412,14 +2604,16 @@
         <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
@@ -2436,7 +2630,7 @@
         <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>42</v>
@@ -2444,11 +2638,9 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2457,7 +2649,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>42</v>
@@ -2466,16 +2658,20 @@
         <v>42</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>87</v>
+      </c>
       <c r="L10" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>42</v>
@@ -2523,15 +2719,11 @@
       <c r="AD10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>89</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2550,11 +2742,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2567,19 +2759,19 @@
         <v>42</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>94</v>
@@ -2608,13 +2800,13 @@
         <v>42</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>42</v>
@@ -2646,7 +2838,7 @@
         <v>42</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>42</v>
@@ -2654,7 +2846,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2674,21 +2866,21 @@
         <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2712,10 +2904,10 @@
         <v>42</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="Y12" t="s" s="2">
         <v>42</v>
@@ -2747,18 +2939,18 @@
         <v>42</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>109</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2766,7 +2958,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>51</v>
@@ -2781,18 +2973,18 @@
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>42</v>
       </c>
@@ -2816,13 +3008,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -2851,18 +3043,18 @@
         <v>42</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2885,16 +3077,16 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2920,13 +3112,13 @@
         <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>42</v>
@@ -2958,23 +3150,23 @@
         <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>51</v>
@@ -2986,21 +3178,21 @@
         <v>42</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
-        <v>132</v>
-      </c>
+      <c r="M15" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>42</v>
       </c>
@@ -3024,13 +3216,13 @@
         <v>42</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>42</v>
@@ -3053,35 +3245,35 @@
       </c>
       <c r="AG15" s="2"/>
       <c r="AH15" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>138</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>42</v>
@@ -3093,15 +3285,17 @@
         <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>42</v>
@@ -3164,7 +3358,7 @@
         <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>42</v>
@@ -3172,11 +3366,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3195,16 +3389,16 @@
         <v>42</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3242,16 +3436,14 @@
         <v>42</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="AE17" s="2"/>
       <c r="AF17" t="s" s="2">
@@ -3268,7 +3460,7 @@
         <v>42</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>42</v>
@@ -3276,15 +3468,17 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>41</v>
@@ -3296,23 +3490,17 @@
         <v>42</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3348,20 +3536,26 @@
         <v>42</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AB18" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AE18" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG18" s="2"/>
+      <c r="AG18" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3369,10 +3563,10 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>42</v>
@@ -3380,20 +3574,20 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
@@ -3402,16 +3596,14 @@
         <v>42</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3461,11 +3653,15 @@
       <c r="AD19" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE19" s="2"/>
+      <c r="AE19" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG19" s="2"/>
+      <c r="AG19" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3484,9 +3680,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3495,7 +3693,7 @@
         <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>42</v>
@@ -3507,11 +3705,9 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K20" t="s" s="2">
         <v>140</v>
       </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
         <v>141</v>
       </c>
@@ -3563,11 +3759,15 @@
       <c r="AD20" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE20" s="2"/>
+      <c r="AE20" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG20" s="2"/>
+      <c r="AG20" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3578,7 +3778,7 @@
         <v>42</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>42</v>
@@ -3586,11 +3786,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="C21" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3609,17 +3811,13 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="K21" s="2"/>
       <c r="L21" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>94</v>
-      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>42</v>
@@ -3667,11 +3865,15 @@
       <c r="AD21" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE21" s="2"/>
+      <c r="AE21" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG21" s="2"/>
+      <c r="AG21" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3682,7 +3884,7 @@
         <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>42</v>
@@ -3690,49 +3892,47 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>42</v>
@@ -3762,16 +3962,14 @@
         <v>42</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="AE22" s="2"/>
       <c r="AF22" t="s" s="2">
@@ -3785,20 +3983,22 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3807,29 +4007,25 @@
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="K23" s="2"/>
       <c r="L23" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3877,11 +4073,15 @@
       <c r="AD23" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE23" s="2"/>
+      <c r="AE23" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG23" s="2"/>
+      <c r="AG23" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3889,10 +4089,10 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -3900,7 +4100,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3920,27 +4120,25 @@
         <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>42</v>
@@ -3981,11 +4179,15 @@
       <c r="AD24" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE24" s="2"/>
+      <c r="AE24" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG24" s="2"/>
+      <c r="AG24" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH24" t="s" s="2">
         <v>42</v>
       </c>
@@ -3993,10 +4195,10 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>42</v>
@@ -4004,18 +4206,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>42</v>
@@ -4024,21 +4226,21 @@
         <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4085,11 +4287,15 @@
       <c r="AD25" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE25" s="2"/>
+      <c r="AE25" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG25" s="2"/>
+      <c r="AG25" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4097,10 +4303,10 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
@@ -4108,7 +4314,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4116,7 +4322,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>51</v>
@@ -4128,29 +4334,27 @@
         <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>42</v>
@@ -4191,11 +4395,15 @@
       <c r="AD26" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE26" s="2"/>
+      <c r="AE26" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="AF26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG26" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4203,10 +4411,10 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
@@ -4214,7 +4422,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4222,7 +4430,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>51</v>
@@ -4234,23 +4442,19 @@
         <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4297,11 +4501,15 @@
       <c r="AD27" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE27" s="2"/>
+      <c r="AE27" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG27" s="2"/>
+      <c r="AG27" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4309,10 +4517,10 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -4320,7 +4528,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4328,10 +4536,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4340,22 +4548,20 @@
         <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4403,15 +4609,11 @@
       <c r="AD28" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE28" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="AE28" s="2"/>
       <c r="AF28" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG28" s="2"/>
       <c r="AH28" t="s" s="2">
         <v>42</v>
       </c>
@@ -4419,18 +4621,18 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>209</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4438,7 +4640,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>51</v>
@@ -4447,23 +4649,23 @@
         <v>42</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4488,13 +4690,13 @@
         <v>42</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>42</v>
@@ -4523,18 +4725,18 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>217</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4548,29 +4750,27 @@
         <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4594,13 +4794,13 @@
         <v>42</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>42</v>
@@ -4629,18 +4829,18 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>224</v>
+        <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4648,7 +4848,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>51</v>
@@ -4663,18 +4863,18 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4698,13 +4898,13 @@
         <v>42</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
@@ -4733,18 +4933,18 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>234</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4755,7 +4955,7 @@
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>42</v>
@@ -4764,21 +4964,19 @@
         <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>237</v>
+        <v>62</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>239</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4837,49 +5035,51 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>242</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>244</v>
+        <v>68</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -4904,11 +5104,13 @@
         <v>42</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>42</v>
@@ -4925,15 +5127,11 @@
       <c r="AD33" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE33" t="s" s="2">
-        <v>248</v>
-      </c>
+      <c r="AE33" s="2"/>
       <c r="AF33" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG33" s="2"/>
       <c r="AH33" t="s" s="2">
         <v>42</v>
       </c>
@@ -4944,7 +5142,7 @@
         <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -4952,7 +5150,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4960,10 +5158,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
@@ -4972,22 +5170,22 @@
         <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -5012,47 +5210,43 @@
         <v>42</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="AB34" s="2"/>
       <c r="AC34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AE34" s="2"/>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG34" s="2"/>
       <c r="AH34" t="s" s="2">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -5060,15 +5254,17 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="C35" t="s" s="2">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
@@ -5080,21 +5276,19 @@
         <v>42</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5118,13 +5312,13 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>262</v>
+        <v>42</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
@@ -5153,10 +5347,10 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -5164,7 +5358,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5187,18 +5381,16 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>267</v>
+        <v>62</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>268</v>
+        <v>63</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5257,10 +5449,10 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>270</v>
+        <v>42</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>271</v>
+        <v>64</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>42</v>
@@ -5268,18 +5460,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>272</v>
+        <v>214</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
@@ -5291,20 +5483,18 @@
         <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>273</v>
+        <v>68</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>274</v>
+        <v>69</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5328,11 +5518,13 @@
         <v>42</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5349,15 +5541,11 @@
       <c r="AD37" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE37" t="s" s="2">
-        <v>272</v>
-      </c>
+      <c r="AE37" s="2"/>
       <c r="AF37" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG37" s="2"/>
       <c r="AH37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5365,18 +5553,18 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>278</v>
+        <v>42</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>279</v>
+        <v>64</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5390,35 +5578,35 @@
         <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>281</v>
+        <v>216</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>282</v>
+        <v>217</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>283</v>
+        <v>218</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>42</v>
@@ -5436,11 +5624,13 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -5469,10 +5659,10 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>286</v>
+        <v>221</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>287</v>
+        <v>222</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
@@ -5480,7 +5670,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>223</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5491,7 +5681,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5500,19 +5690,19 @@
         <v>42</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>289</v>
+        <v>224</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>291</v>
+        <v>226</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5561,15 +5751,11 @@
       <c r="AD39" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE39" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="AE39" s="2"/>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG39" s="2"/>
       <c r="AH39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5577,10 +5763,10 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>294</v>
+        <v>229</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -5588,7 +5774,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>230</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5599,7 +5785,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
@@ -5608,27 +5794,27 @@
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>296</v>
+        <v>109</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>42</v>
@@ -5669,15 +5855,11 @@
       <c r="AD40" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE40" t="s" s="2">
-        <v>295</v>
-      </c>
+      <c r="AE40" s="2"/>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG40" s="2"/>
       <c r="AH40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5685,10 +5867,10 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5696,7 +5878,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5707,7 +5889,7 @@
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
@@ -5716,22 +5898,20 @@
         <v>42</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>303</v>
+        <v>224</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>304</v>
+        <v>238</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5779,26 +5959,22 @@
       <c r="AD41" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE41" t="s" s="2">
-        <v>302</v>
-      </c>
+      <c r="AE41" s="2"/>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG41" s="2"/>
       <c r="AH41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>
@@ -5806,7 +5982,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5826,19 +6002,23 @@
         <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>53</v>
+        <v>244</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
@@ -5897,10 +6077,10 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
@@ -5908,18 +6088,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
@@ -5928,21 +6108,23 @@
         <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>92</v>
+        <v>252</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6001,10 +6183,10 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
@@ -6012,41 +6194,43 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>314</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I44" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>259</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6093,11 +6277,15 @@
       <c r="AD44" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE44" s="2"/>
+      <c r="AE44" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG44" s="2"/>
+      <c r="AG44" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6105,18 +6293,18 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>88</v>
+        <v>265</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>42</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6139,16 +6327,18 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>42</v>
       </c>
@@ -6201,24 +6391,24 @@
       </c>
       <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>42</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6232,25 +6422,29 @@
         <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
       </c>
@@ -6303,24 +6497,24 @@
       </c>
       <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6340,23 +6534,21 @@
         <v>42</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
       </c>
@@ -6380,13 +6572,13 @@
         <v>42</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
@@ -6415,18 +6607,18 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>42</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6437,7 +6629,7 @@
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>42</v>
@@ -6446,20 +6638,20 @@
         <v>42</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -6519,18 +6711,18 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>42</v>
+        <v>296</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>42</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6538,31 +6730,35 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
       </c>
@@ -6586,13 +6782,11 @@
         <v>42</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>42</v>
@@ -6609,11 +6803,15 @@
       <c r="AD49" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE49" s="2"/>
+      <c r="AE49" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG49" s="2"/>
+      <c r="AG49" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH49" t="s" s="2">
         <v>42</v>
       </c>
@@ -6621,10 +6819,10 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6632,7 +6830,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6643,7 +6841,7 @@
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>42</v>
@@ -6652,22 +6850,22 @@
         <v>42</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>303</v>
+        <v>184</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -6692,47 +6890,49 @@
         <v>42</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AB50" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>351</v>
+        <v>130</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6740,13 +6940,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>42</v>
+        <v>319</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6762,19 +6960,21 @@
         <v>42</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>303</v>
+        <v>184</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
       </c>
@@ -6798,13 +6998,13 @@
         <v>42</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>42</v>
+        <v>324</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>42</v>
@@ -6821,15 +7021,11 @@
       <c r="AD51" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE51" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="AE51" s="2"/>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG51" s="2"/>
       <c r="AH51" t="s" s="2">
         <v>42</v>
       </c>
@@ -6837,10 +7033,10 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -6848,7 +7044,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6871,16 +7067,18 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>53</v>
+        <v>224</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>140</v>
+        <v>328</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>141</v>
+        <v>329</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
       </c>
@@ -6939,10 +7137,10 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>42</v>
+        <v>331</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>142</v>
+        <v>332</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -6950,18 +7148,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>42</v>
@@ -6973,18 +7171,20 @@
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>92</v>
+        <v>334</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>144</v>
+        <v>335</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
       </c>
@@ -7008,13 +7208,13 @@
         <v>42</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>42</v>
+        <v>304</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>42</v>
+        <v>338</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>42</v>
+        <v>339</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>42</v>
@@ -7031,11 +7231,15 @@
       <c r="AD53" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE53" s="2"/>
+      <c r="AE53" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG53" s="2"/>
+      <c r="AG53" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH53" t="s" s="2">
         <v>42</v>
       </c>
@@ -7043,52 +7247,54 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>42</v>
+        <v>340</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>142</v>
+        <v>341</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>314</v>
+        <v>42</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>101</v>
+        <v>343</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7112,13 +7318,11 @@
         <v>42</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>42</v>
@@ -7147,10 +7351,10 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>42</v>
+        <v>348</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>88</v>
+        <v>349</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
@@ -7158,7 +7362,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7169,7 +7373,7 @@
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
@@ -7181,26 +7385,24 @@
         <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>67</v>
+        <v>351</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>364</v>
+        <v>42</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>42</v>
@@ -7218,13 +7420,13 @@
         <v>42</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>365</v>
+        <v>42</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>366</v>
+        <v>42</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>42</v>
@@ -7241,11 +7443,15 @@
       <c r="AD55" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE55" s="2"/>
+      <c r="AE55" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG55" s="2"/>
+      <c r="AG55" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH55" t="s" s="2">
         <v>42</v>
       </c>
@@ -7253,10 +7459,10 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>88</v>
+        <v>355</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7264,7 +7470,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7272,10 +7478,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
@@ -7287,15 +7493,17 @@
         <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>42</v>
@@ -7343,11 +7551,15 @@
       <c r="AD56" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE56" s="2"/>
+      <c r="AE56" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG56" s="2"/>
+      <c r="AG56" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH56" t="s" s="2">
         <v>42</v>
       </c>
@@ -7355,10 +7567,10 @@
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>42</v>
+        <v>362</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
@@ -7366,11 +7578,9 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>42</v>
       </c>
@@ -7379,7 +7589,7 @@
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
@@ -7388,19 +7598,23 @@
         <v>42</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>303</v>
+        <v>365</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
       </c>
@@ -7448,7 +7662,7 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7460,13 +7674,13 @@
         <v>42</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>42</v>
+        <v>370</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7474,7 +7688,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7500,10 +7714,10 @@
         <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7568,7 +7782,7 @@
         <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7576,11 +7790,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7599,16 +7813,16 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7672,7 +7886,7 @@
         <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7680,11 +7894,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>314</v>
+        <v>376</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -7703,16 +7917,16 @@
         <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>315</v>
+        <v>377</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7776,7 +7990,7 @@
         <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -7784,7 +7998,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7807,26 +8021,22 @@
         <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>67</v>
+        <v>379</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>364</v>
+        <v>42</v>
       </c>
       <c r="R61" t="s" s="2">
         <v>42</v>
@@ -7844,13 +8054,13 @@
         <v>42</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>365</v>
+        <v>42</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>366</v>
+        <v>42</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
@@ -7873,16 +8083,16 @@
       </c>
       <c r="AG61" s="2"/>
       <c r="AH61" t="s" s="2">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>88</v>
+        <v>383</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -7890,7 +8100,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7898,7 +8108,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>51</v>
@@ -7913,13 +8123,13 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7975,16 +8185,16 @@
       </c>
       <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>42</v>
+        <v>383</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -7992,11 +8202,9 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8014,19 +8222,23 @@
         <v>42</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>303</v>
+        <v>184</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8050,13 +8262,13 @@
         <v>42</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>42</v>
+        <v>394</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>42</v>
+        <v>395</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>42</v>
@@ -8073,15 +8285,11 @@
       <c r="AD63" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE63" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="AE63" s="2"/>
       <c r="AF63" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG63" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG63" s="2"/>
       <c r="AH63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8089,10 +8297,10 @@
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8100,7 +8308,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8123,16 +8331,18 @@
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>53</v>
+        <v>398</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>140</v>
+        <v>399</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>141</v>
+        <v>400</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
       </c>
@@ -8194,7 +8404,7 @@
         <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>142</v>
+        <v>402</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8202,18 +8412,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>42</v>
@@ -8225,17 +8435,15 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>92</v>
+        <v>404</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -8295,10 +8503,10 @@
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>42</v>
+        <v>383</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>142</v>
+        <v>406</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -8306,41 +8514,43 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>314</v>
+        <v>42</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I66" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J66" t="s" s="2">
-        <v>91</v>
+        <v>365</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>101</v>
+        <v>408</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>315</v>
+        <v>409</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8376,22 +8586,24 @@
         <v>42</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="AB66" s="2"/>
       <c r="AC66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE66" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG66" s="2"/>
+      <c r="AG66" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8399,10 +8611,10 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>42</v>
+        <v>413</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>88</v>
+        <v>414</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8410,7 +8622,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8433,26 +8645,22 @@
         <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>360</v>
+        <v>62</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>364</v>
+        <v>42</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>42</v>
@@ -8470,13 +8678,13 @@
         <v>42</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>365</v>
+        <v>42</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>366</v>
+        <v>42</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>42</v>
@@ -8505,10 +8713,10 @@
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>367</v>
+        <v>64</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8516,18 +8724,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>42</v>
@@ -8539,15 +8747,17 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>380</v>
+        <v>67</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>370</v>
+        <v>68</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>42</v>
@@ -8610,7 +8820,7 @@
         <v>42</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>372</v>
+        <v>64</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -8618,43 +8828,41 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>303</v>
+        <v>67</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>382</v>
+        <v>146</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>42</v>
       </c>
@@ -8701,15 +8909,11 @@
       <c r="AD69" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE69" t="s" s="2">
-        <v>381</v>
-      </c>
+      <c r="AE69" s="2"/>
       <c r="AF69" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG69" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG69" s="2"/>
       <c r="AH69" t="s" s="2">
         <v>42</v>
       </c>
@@ -8717,10 +8921,10 @@
         <v>42</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>385</v>
+        <v>42</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>386</v>
+        <v>130</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>42</v>
@@ -8728,7 +8932,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8751,22 +8955,26 @@
         <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>140</v>
+        <v>419</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>42</v>
+        <v>423</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>42</v>
@@ -8784,13 +8992,13 @@
         <v>42</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>42</v>
+        <v>424</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>42</v>
@@ -8819,10 +9027,10 @@
         <v>42</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>142</v>
+        <v>426</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>42</v>
@@ -8830,18 +9038,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>42</v>
@@ -8853,17 +9061,15 @@
         <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>91</v>
+        <v>428</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>92</v>
+        <v>429</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>42</v>
@@ -8926,7 +9132,7 @@
         <v>42</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>142</v>
+        <v>431</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>42</v>
@@ -8934,40 +9140,40 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B72" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="C72" t="s" s="2">
-        <v>314</v>
+        <v>42</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I72" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I72" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J72" t="s" s="2">
-        <v>91</v>
+        <v>365</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>101</v>
+        <v>433</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>42</v>
@@ -9015,11 +9221,15 @@
       <c r="AD72" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE72" s="2"/>
+      <c r="AE72" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG72" s="2"/>
+      <c r="AG72" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH72" t="s" s="2">
         <v>42</v>
       </c>
@@ -9027,10 +9237,10 @@
         <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>42</v>
+        <v>413</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>88</v>
+        <v>414</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>42</v>
@@ -9038,7 +9248,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9046,7 +9256,7 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>51</v>
@@ -9058,21 +9268,19 @@
         <v>42</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>391</v>
+        <v>62</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>392</v>
+        <v>63</v>
       </c>
       <c r="M73" s="2"/>
-      <c r="N73" t="s" s="2">
-        <v>132</v>
-      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>42</v>
       </c>
@@ -9096,13 +9304,13 @@
         <v>42</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>42</v>
@@ -9125,35 +9333,35 @@
       </c>
       <c r="AG73" s="2"/>
       <c r="AH73" t="s" s="2">
-        <v>393</v>
+        <v>42</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>138</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>42</v>
@@ -9162,23 +9370,21 @@
         <v>42</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>395</v>
+        <v>67</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>396</v>
+        <v>68</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>245</v>
+        <v>69</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>42</v>
       </c>
@@ -9237,10 +9443,10 @@
         <v>42</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>399</v>
+        <v>42</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>400</v>
+        <v>64</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>42</v>
@@ -9248,43 +9454,41 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>402</v>
+        <v>146</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>42</v>
       </c>
@@ -9308,11 +9512,13 @@
         <v>42</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="X75" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y75" t="s" s="2">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>42</v>
@@ -9335,16 +9541,16 @@
       </c>
       <c r="AG75" s="2"/>
       <c r="AH75" t="s" s="2">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>256</v>
+        <v>130</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>42</v>
@@ -9352,7 +9558,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9363,7 +9569,7 @@
         <v>40</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>42</v>
@@ -9375,26 +9581,26 @@
         <v>42</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>303</v>
+        <v>109</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>305</v>
+        <v>420</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>306</v>
+        <v>421</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>307</v>
+        <v>422</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
-        <v>42</v>
+        <v>423</v>
       </c>
       <c r="R76" t="s" s="2">
         <v>42</v>
@@ -9412,13 +9618,13 @@
         <v>42</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>42</v>
+        <v>424</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>42</v>
@@ -9447,10 +9653,10 @@
         <v>42</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>309</v>
+        <v>130</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>310</v>
+        <v>426</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>42</v>
@@ -9458,7 +9664,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9466,7 +9672,7 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>51</v>
@@ -9481,13 +9687,13 @@
         <v>42</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>53</v>
+        <v>435</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>140</v>
+        <v>429</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>141</v>
+        <v>430</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9552,7 +9758,7 @@
         <v>42</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>142</v>
+        <v>431</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>42</v>
@@ -9562,16 +9768,18 @@
       <c r="A78" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="B78" s="2"/>
+      <c r="B78" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="C78" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>42</v>
@@ -9580,20 +9788,18 @@
         <v>42</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>91</v>
+        <v>365</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>92</v>
+        <v>437</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>42</v>
@@ -9641,11 +9847,15 @@
       <c r="AD78" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE78" s="2"/>
+      <c r="AE78" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG78" s="2"/>
+      <c r="AG78" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH78" t="s" s="2">
         <v>42</v>
       </c>
@@ -9653,10 +9863,10 @@
         <v>42</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>42</v>
+        <v>413</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>142</v>
+        <v>414</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>42</v>
@@ -9664,40 +9874,38 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>314</v>
+        <v>42</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>42</v>
@@ -9760,7 +9968,7 @@
         <v>42</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>42</v>
@@ -9768,18 +9976,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>42</v>
@@ -9791,15 +9999,17 @@
         <v>42</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>317</v>
+        <v>67</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>318</v>
+        <v>68</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>42</v>
@@ -9853,16 +10063,16 @@
       </c>
       <c r="AG80" s="2"/>
       <c r="AH80" t="s" s="2">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>322</v>
+        <v>64</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>42</v>
@@ -9870,38 +10080,40 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>317</v>
+        <v>67</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>324</v>
+        <v>146</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>42</v>
@@ -9955,16 +10167,16 @@
       </c>
       <c r="AG81" s="2"/>
       <c r="AH81" t="s" s="2">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>326</v>
+        <v>130</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>42</v>
@@ -9972,7 +10184,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9995,26 +10207,26 @@
         <v>42</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>328</v>
+        <v>419</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>329</v>
+        <v>420</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>330</v>
+        <v>421</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>331</v>
+        <v>422</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
-        <v>42</v>
+        <v>423</v>
       </c>
       <c r="R82" t="s" s="2">
         <v>42</v>
@@ -10032,13 +10244,13 @@
         <v>42</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>332</v>
+        <v>424</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>333</v>
+        <v>425</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>42</v>
@@ -10067,10 +10279,10 @@
         <v>42</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>334</v>
+        <v>130</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>265</v>
+        <v>426</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>42</v>
@@ -10078,7 +10290,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10086,7 +10298,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>51</v>
@@ -10101,18 +10313,16 @@
         <v>42</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>336</v>
+        <v>439</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>337</v>
+        <v>429</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>338</v>
+        <v>430</v>
       </c>
       <c r="M83" s="2"/>
-      <c r="N83" t="s" s="2">
-        <v>339</v>
-      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>42</v>
       </c>
@@ -10174,7 +10384,7 @@
         <v>42</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>340</v>
+        <v>431</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>42</v>
@@ -10182,9 +10392,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B84" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="C84" t="s" s="2">
         <v>42</v>
       </c>
@@ -10202,16 +10414,16 @@
         <v>42</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>167</v>
+        <v>365</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>342</v>
+        <v>441</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>343</v>
+        <v>442</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10261,11 +10473,15 @@
       <c r="AD84" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE84" s="2"/>
+      <c r="AE84" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG84" s="2"/>
+      <c r="AG84" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH84" t="s" s="2">
         <v>42</v>
       </c>
@@ -10273,17 +10489,2203 @@
         <v>42</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>321</v>
+        <v>413</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE85" s="2"/>
+      <c r="AF85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG85" s="2"/>
+      <c r="AH85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE86" s="2"/>
+      <c r="AF86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG86" s="2"/>
+      <c r="AH86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE87" s="2"/>
+      <c r="AF87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG87" s="2"/>
+      <c r="AH87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE88" s="2"/>
+      <c r="AF88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG88" s="2"/>
+      <c r="AH88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE89" s="2"/>
+      <c r="AF89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG89" s="2"/>
+      <c r="AH89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE91" s="2"/>
+      <c r="AF91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG91" s="2"/>
+      <c r="AH91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE92" s="2"/>
+      <c r="AF92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG92" s="2"/>
+      <c r="AH92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE93" s="2"/>
+      <c r="AF93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG93" s="2"/>
+      <c r="AH93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE94" s="2"/>
+      <c r="AF94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG94" s="2"/>
+      <c r="AH94" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE95" s="2"/>
+      <c r="AF95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG95" s="2"/>
+      <c r="AH95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE96" s="2"/>
+      <c r="AF96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG96" s="2"/>
+      <c r="AH96" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE97" s="2"/>
+      <c r="AF97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG97" s="2"/>
+      <c r="AH97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE98" s="2"/>
+      <c r="AF98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG98" s="2"/>
+      <c r="AH98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE99" s="2"/>
+      <c r="AF99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG99" s="2"/>
+      <c r="AH99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE100" s="2"/>
+      <c r="AF100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG100" s="2"/>
+      <c r="AH100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE101" s="2"/>
+      <c r="AF101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG101" s="2"/>
+      <c r="AH101" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE102" s="2"/>
+      <c r="AF102" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG102" s="2"/>
+      <c r="AH102" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE103" s="2"/>
+      <c r="AF103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG103" s="2"/>
+      <c r="AH103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE104" s="2"/>
+      <c r="AF104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG104" s="2"/>
+      <c r="AH104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE105" s="2"/>
+      <c r="AF105" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG105" s="2"/>
+      <c r="AH105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL105" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL84">
+  <autoFilter ref="A1:AL105">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10293,7 +12695,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI83">
+  <conditionalFormatting sqref="A2:AI104">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
